--- a/carjet-back/src/Utils/SheetFormat.xlsx
+++ b/carjet-back/src/Utils/SheetFormat.xlsx
@@ -20,24 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t xml:space="preserve">Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reporter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summary</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity</t>
   </si>
   <si>
     <t xml:space="preserve">Produto 1</t>
@@ -46,22 +40,19 @@
     <t xml:space="preserve">Especificação 1</t>
   </si>
   <si>
-    <t xml:space="preserve"> Report 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sumario 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Produto 2</t>
   </si>
   <si>
     <t xml:space="preserve">Especificação 2</t>
   </si>
   <si>
-    <t xml:space="preserve"> Report 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sumario 2</t>
+    <t xml:space="preserve">Produto 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Especificação 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alteração produto 1</t>
   </si>
 </sst>
 </file>
@@ -71,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -96,14 +87,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -114,14 +97,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="0"/>
       <charset val="134"/>
     </font>
@@ -143,18 +118,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -183,7 +150,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,19 +163,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -229,10 +204,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -260,163 +235,168 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="0"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>141</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <v>141</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" s="0"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="19.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>253</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D3" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>365</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="19.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>253</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="D4" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="0"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="6"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="0"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -435,6 +415,12 @@
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="6"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
